--- a/DbImport/Custom Prod 20160930.xlsx
+++ b/DbImport/Custom Prod 20160930.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$H$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$I$85</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="170">
   <si>
     <t>User ID</t>
   </si>
@@ -43,18 +43,36 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>Real money balance</t>
+  </si>
+  <si>
+    <t>test@yopmail.com</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>jxxfxx</t>
+  </si>
+  <si>
+    <t>angedefeu1960@gmail.com</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>adamaltaie.sw@gmail.com</t>
+  </si>
+  <si>
     <t>air155</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>gagai1@yandex.ru</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>konkoster</t>
   </si>
   <si>
@@ -508,7 +526,7 @@
     <t>total</t>
   </si>
   <si>
-    <t>80</t>
+    <t>83</t>
   </si>
 </sst>
 </file>
@@ -605,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,17 +631,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.4204140982774" customWidth="1"/>
-    <col min="2" max="2" width="25.4204140982774" customWidth="1"/>
-    <col min="3" max="3" width="25.4204140982774" customWidth="1"/>
-    <col min="4" max="4" width="25.4204140982774" customWidth="1"/>
-    <col min="5" max="5" width="25.4204140982774" customWidth="1"/>
-    <col min="6" max="6" width="25.4204140982774" customWidth="1"/>
-    <col min="7" max="7" width="25.4204140982774" customWidth="1"/>
-    <col min="8" max="8" width="25.4204140982774" customWidth="1"/>
+    <col min="1" max="1" width="10.0410635688196" customWidth="1"/>
+    <col min="2" max="2" width="9.9139614983282" customWidth="1"/>
+    <col min="3" max="3" width="10.0410635688196" customWidth="1"/>
+    <col min="4" max="4" width="10.0410635688196" customWidth="1"/>
+    <col min="5" max="5" width="10.0410635688196" customWidth="1"/>
+    <col min="6" max="6" width="9.9139614983282" customWidth="1"/>
+    <col min="7" max="7" width="10.0410635688196" customWidth="1"/>
+    <col min="8" max="8" width="10.0410635688196" customWidth="1"/>
+    <col min="9" max="9" width="10.0410635688196" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.008" customHeight="1">
+    <row r="1" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,20 +667,23 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A2" s="4">
-        <v>4986466</v>
+        <v>5324897</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -672,16 +694,19 @@
       <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A3" s="4">
-        <v>4986155</v>
+        <v>5110007</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -696,16 +721,19 @@
       <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A4" s="4">
-        <v>4978982</v>
+        <v>5089808</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -720,16 +748,19 @@
       <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A5" s="4">
-        <v>4936838</v>
+        <v>4986466</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -744,16 +775,19 @@
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A6" s="4">
-        <v>4932139</v>
+        <v>4986155</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
@@ -768,16 +802,19 @@
       <c r="H6" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A7" s="4">
-        <v>4907437</v>
+        <v>4978982</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
@@ -792,16 +829,19 @@
       <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A8" s="4">
-        <v>4837662</v>
+        <v>4936838</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
@@ -816,20 +856,23 @@
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A9" s="4">
-        <v>4822705</v>
+        <v>4932139</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -840,20 +883,23 @@
       <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I9" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A10" s="4">
-        <v>4791888</v>
+        <v>4907437</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -864,20 +910,23 @@
       <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A11" s="4">
-        <v>4767714</v>
+        <v>4837662</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -888,16 +937,19 @@
       <c r="H11" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A12" s="4">
-        <v>4767508</v>
+        <v>4822705</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
@@ -912,88 +964,100 @@
       <c r="H12" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A13" s="4">
-        <v>4764487</v>
+        <v>4791888</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.8032" customHeight="1">
+      <c r="A14" s="4">
+        <v>4767714</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="37.008" customHeight="1">
-      <c r="A14" s="4">
-        <v>4764486</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.06304" customHeight="1">
+      <c r="A15" s="4">
+        <v>4767508</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="37.008" customHeight="1">
-      <c r="A15" s="4">
-        <v>4761052</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.8032" customHeight="1">
+      <c r="A16" s="4">
+        <v>4764487</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="37.008" customHeight="1">
-      <c r="A16" s="4">
-        <v>4749413</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
@@ -1008,16 +1072,19 @@
       <c r="H16" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A17" s="4">
-        <v>4748705</v>
+        <v>4764486</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
@@ -1032,16 +1099,19 @@
       <c r="H17" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A18" s="4">
-        <v>4740351</v>
+        <v>4761052</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
@@ -1056,16 +1126,19 @@
       <c r="H18" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A19" s="4">
-        <v>4726042</v>
+        <v>4749413</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
@@ -1080,16 +1153,19 @@
       <c r="H19" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A20" s="4">
-        <v>4689291</v>
+        <v>4748705</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
@@ -1104,16 +1180,19 @@
       <c r="H20" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A21" s="4">
-        <v>4688931</v>
+        <v>4740351</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
@@ -1128,16 +1207,19 @@
       <c r="H21" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A22" s="4">
-        <v>4686166</v>
+        <v>4726042</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
@@ -1152,16 +1234,19 @@
       <c r="H22" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A23" s="4">
-        <v>4672760</v>
+        <v>4689291</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
@@ -1176,16 +1261,19 @@
       <c r="H23" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A24" s="4">
-        <v>4672689</v>
+        <v>4688931</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
@@ -1200,16 +1288,19 @@
       <c r="H24" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A25" s="4">
-        <v>4672688</v>
+        <v>4686166</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
@@ -1224,16 +1315,19 @@
       <c r="H25" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A26" s="4">
-        <v>4672457</v>
+        <v>4672760</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
@@ -1248,16 +1342,19 @@
       <c r="H26" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A27" s="4">
-        <v>4667425</v>
+        <v>4672689</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
@@ -1272,16 +1369,19 @@
       <c r="H27" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A28" s="4">
-        <v>4638358</v>
+        <v>4672688</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
@@ -1296,16 +1396,19 @@
       <c r="H28" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A29" s="4">
-        <v>4638320</v>
+        <v>4672457</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
@@ -1320,16 +1423,19 @@
       <c r="H29" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A30" s="4">
-        <v>4637431</v>
+        <v>4667425</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
@@ -1344,16 +1450,19 @@
       <c r="H30" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A31" s="4">
-        <v>4631872</v>
+        <v>4638358</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
@@ -1368,16 +1477,19 @@
       <c r="H31" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A32" s="4">
-        <v>4628344</v>
+        <v>4638320</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
@@ -1392,16 +1504,19 @@
       <c r="H32" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A33" s="4">
-        <v>4613890</v>
+        <v>4637431</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
@@ -1416,16 +1531,19 @@
       <c r="H33" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A34" s="4">
-        <v>4607775</v>
+        <v>4631872</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
@@ -1440,16 +1558,19 @@
       <c r="H34" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A35" s="4">
-        <v>4590009</v>
+        <v>4628344</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
@@ -1464,16 +1585,19 @@
       <c r="H35" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I35" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A36" s="4">
-        <v>4583726</v>
+        <v>4613890</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
@@ -1488,20 +1612,23 @@
       <c r="H36" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A37" s="4">
-        <v>4559795</v>
+        <v>4607775</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
@@ -1512,20 +1639,23 @@
       <c r="H37" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A38" s="4">
-        <v>4553468</v>
+        <v>4590009</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -1536,20 +1666,23 @@
       <c r="H38" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A39" s="4">
-        <v>4553095</v>
+        <v>4583726</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -1560,16 +1693,19 @@
       <c r="H39" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A40" s="4">
-        <v>4550568</v>
+        <v>4559795</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
@@ -1584,20 +1720,23 @@
       <c r="H40" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A41" s="4">
-        <v>4550252</v>
+        <v>4553468</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="6">
         <v>0</v>
@@ -1608,20 +1747,23 @@
       <c r="H41" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A42" s="4">
-        <v>4550127</v>
+        <v>4553095</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -1632,20 +1774,23 @@
       <c r="H42" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I42" s="6">
+        <v>38.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A43" s="4">
-        <v>4513920</v>
+        <v>4550568</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -1656,16 +1801,19 @@
       <c r="H43" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A44" s="4">
-        <v>4492142</v>
+        <v>4550252</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
@@ -1680,20 +1828,23 @@
       <c r="H44" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A45" s="4">
-        <v>4478543</v>
+        <v>4550127</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F45" s="6">
         <v>0</v>
@@ -1704,20 +1855,23 @@
       <c r="H45" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A46" s="4">
-        <v>4477503</v>
+        <v>4513920</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="6">
         <v>0</v>
@@ -1728,20 +1882,23 @@
       <c r="H46" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A47" s="4">
-        <v>4472565</v>
+        <v>4492142</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
@@ -1752,20 +1909,23 @@
       <c r="H47" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A48" s="4">
-        <v>4471731</v>
+        <v>4478543</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -1776,20 +1936,23 @@
       <c r="H48" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A49" s="4">
-        <v>4449056</v>
+        <v>4477503</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
@@ -1800,16 +1963,19 @@
       <c r="H49" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A50" s="4">
-        <v>4411429</v>
+        <v>4472565</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
@@ -1824,16 +1990,19 @@
       <c r="H50" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A51" s="4">
-        <v>4409750</v>
+        <v>4471731</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
@@ -1848,16 +2017,19 @@
       <c r="H51" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A52" s="4">
-        <v>4409347</v>
+        <v>4449056</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
@@ -1872,23 +2044,26 @@
       <c r="H52" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A53" s="4">
-        <v>4406506</v>
+        <v>4411429</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
         <v>109</v>
       </c>
       <c r="F53" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
@@ -1896,16 +2071,19 @@
       <c r="H53" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I53" s="6">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A54" s="4">
-        <v>4406144</v>
+        <v>4409750</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
@@ -1920,16 +2098,19 @@
       <c r="H54" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A55" s="4">
-        <v>4395799</v>
+        <v>4409347</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
@@ -1944,23 +2125,26 @@
       <c r="H55" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A56" s="4">
-        <v>4387368</v>
+        <v>4406506</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F56" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G56" s="6">
         <v>0</v>
@@ -1968,20 +2152,23 @@
       <c r="H56" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I56" s="6">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A57" s="4">
-        <v>4361418</v>
+        <v>4406144</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
@@ -1992,20 +2179,23 @@
       <c r="H57" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A58" s="4">
-        <v>4352145</v>
+        <v>4395799</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
@@ -2016,16 +2206,19 @@
       <c r="H58" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A59" s="4">
-        <v>4303413</v>
+        <v>4387368</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
@@ -2040,20 +2233,23 @@
       <c r="H59" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A60" s="4">
-        <v>4301526</v>
+        <v>4361418</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F60" s="6">
         <v>0</v>
@@ -2064,20 +2260,23 @@
       <c r="H60" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A61" s="4">
-        <v>4301289</v>
+        <v>4352145</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
@@ -2088,23 +2287,26 @@
       <c r="H61" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A62" s="4">
-        <v>4300962</v>
+        <v>4303413</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F62" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
@@ -2112,23 +2314,26 @@
       <c r="H62" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A63" s="4">
-        <v>4300927</v>
+        <v>4301526</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F63" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G63" s="6">
         <v>0</v>
@@ -2136,20 +2341,23 @@
       <c r="H63" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A64" s="4">
-        <v>4238272</v>
+        <v>4301289</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F64" s="6">
         <v>0</v>
@@ -2160,23 +2368,26 @@
       <c r="H64" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A65" s="4">
-        <v>4238271</v>
+        <v>4300962</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F65" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
@@ -2184,23 +2395,26 @@
       <c r="H65" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I65" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A66" s="4">
-        <v>4238270</v>
+        <v>4300927</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
         <v>132</v>
       </c>
       <c r="F66" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G66" s="6">
         <v>0</v>
@@ -2208,16 +2422,19 @@
       <c r="H66" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I66" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A67" s="4">
-        <v>4238269</v>
+        <v>4238272</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
@@ -2232,16 +2449,19 @@
       <c r="H67" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A68" s="4">
-        <v>4238268</v>
+        <v>4238271</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
@@ -2256,16 +2476,19 @@
       <c r="H68" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A69" s="4">
-        <v>4231902</v>
+        <v>4238270</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
@@ -2280,20 +2503,23 @@
       <c r="H69" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A70" s="4">
-        <v>4231336</v>
+        <v>4238269</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>139</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F70" s="6">
         <v>0</v>
@@ -2304,20 +2530,23 @@
       <c r="H70" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A71" s="4">
-        <v>4215737</v>
+        <v>4238268</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F71" s="6">
         <v>0</v>
@@ -2328,20 +2557,23 @@
       <c r="H71" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A72" s="4">
-        <v>4215736</v>
+        <v>4231902</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F72" s="6">
         <v>0</v>
@@ -2352,16 +2584,19 @@
       <c r="H72" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A73" s="4">
-        <v>4215735</v>
+        <v>4231336</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
@@ -2376,16 +2611,19 @@
       <c r="H73" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I73" s="6">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A74" s="4">
-        <v>4215734</v>
+        <v>4215737</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
@@ -2400,16 +2638,19 @@
       <c r="H74" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A75" s="4">
-        <v>4215733</v>
+        <v>4215736</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
@@ -2424,16 +2665,19 @@
       <c r="H75" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A76" s="4">
-        <v>4215730</v>
+        <v>4215735</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
@@ -2448,16 +2692,19 @@
       <c r="H76" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A77" s="4">
-        <v>4215729</v>
+        <v>4215734</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
@@ -2472,16 +2719,19 @@
       <c r="H77" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A78" s="4">
-        <v>4215728</v>
+        <v>4215733</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
@@ -2496,16 +2746,19 @@
       <c r="H78" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.06304" customHeight="1">
       <c r="A79" s="4">
-        <v>4215727</v>
+        <v>4215730</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
@@ -2520,16 +2773,19 @@
       <c r="H79" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A80" s="4">
-        <v>4130676</v>
+        <v>4215729</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
@@ -2544,16 +2800,19 @@
       <c r="H80" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="37.008" customHeight="1">
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="14.8032" customHeight="1">
       <c r="A81" s="4">
-        <v>4130675</v>
+        <v>4215728</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
@@ -2568,27 +2827,114 @@
       <c r="H81" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="37.008" customHeight="1">
-      <c r="A82" s="4" t="s">
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="14.06304" customHeight="1">
+      <c r="A82" s="4">
+        <v>4215727</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
       <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.8032" customHeight="1">
+      <c r="A83" s="4">
+        <v>4130676</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+      <c r="G83" s="6">
+        <v>0</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.8032" customHeight="1">
+      <c r="A84" s="4">
+        <v>4130675</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.8032" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="6">
         <v>25</v>
       </c>
-      <c r="G82" s="6">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5"/>
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6">
+        <v>76.81</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
+  <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.393700787401575" bottom="0.393700787401575" header="0" footer="0"/>
   <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>